--- a/biology/Histoire de la zoologie et de la botanique/Eugenio_Izecksohn/Eugenio_Izecksohn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugenio_Izecksohn/Eugenio_Izecksohn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenio Izecksohn est un herpétologiste brésilien, né le 14 mai 1932 et mort le 3 juin 2013 à l'âge de 81 ans[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenio Izecksohn est un herpétologiste brésilien, né le 14 mai 1932 et mort le 3 juin 2013 à l'âge de 81 ans,.
 Diplômé de Universidade Federal Rural do Rio de Janeiro en 1953, il y travaille depuis, c'est un spécialiste des anoures néotropicaux.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aplastodiscus eugenioi (Carvalho-e-Silva &amp; Carvalho-e-Silva, 2005)
 Bokermannohyla izecksohni (Jim &amp; Caramaschi, 1979)
@@ -549,7 +563,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brachycephalus didactylus (Izecksohn, 1971)
